--- a/WinformsUI/Template/template_salary.xlsx
+++ b/WinformsUI/Template/template_salary.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\SalaryAudit\WinformsUI\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC621604-FDD2-4709-8ECB-3DEB50FB93CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1637C-7F38-4D37-A12E-1D4BC57F4036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8DFAB6B4-22C1-448E-8945-6FE6DF41C07B}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="8994" activeTab="1" xr2:uid="{8DFAB6B4-22C1-448E-8945-6FE6DF41C07B}"/>
   </bookViews>
   <sheets>
     <sheet name="调节表" sheetId="1" r:id="rId1"/>
     <sheet name="明细表" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工资调节表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$[CurrentDate]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,10 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工资明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一、上月应发工资累计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +392,14 @@
   </si>
   <si>
     <t>$[CurrentBalanced]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职人员工资调节表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职人员工资明细表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50E0267-16BA-415F-B962-00EA1D567FE7}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -853,17 +853,17 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.3" x14ac:dyDescent="0.5">
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.3" x14ac:dyDescent="0.5">
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="9" t="s">
@@ -871,7 +871,7 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="9" t="s">
@@ -959,19 +959,19 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="B8" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I8" s="9"/>
     </row>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8B67D8-2FA4-491A-9158-985F30A9F050}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1020,20 +1020,20 @@
   <sheetData>
     <row r="1" spans="1:33" ht="18.3" x14ac:dyDescent="0.5">
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="18.3" x14ac:dyDescent="0.5">
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -1045,82 +1045,82 @@
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
@@ -1131,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -1143,82 +1143,82 @@
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Z6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="AB6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>18</v>
